--- a/Symal/30913/WBS x ITP - Structure.xlsx
+++ b/Symal/30913/WBS x ITP - Structure.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysymal-my.sharepoint.com/personal/earl_andrade_symal_com_au/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\30913\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{8FDDF4CB-C889-44C9-973E-728F797E361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7818391E-8333-41A8-83B0-2D9E6365CE41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C000CA-DD1B-40F7-9AAF-2E06FD54F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24C41C24-CFC4-49A0-88DB-7727342B8AC5}"/>
+    <workbookView xWindow="7485" yWindow="525" windowWidth="29040" windowHeight="19785" xr2:uid="{24C41C24-CFC4-49A0-88DB-7727342B8AC5}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS x ITP" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WBS x ITP'!$A$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WBS x ITP'!$A$4:$AE$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'WBS x ITP'!$A$1:$H$129</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'WBS x ITP'!$4:$4</definedName>
   </definedNames>
@@ -868,14 +868,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,19 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,7 +1304,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,83 +1470,65 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="9" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1575,9 +1551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1615,7 +1591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1721,7 +1697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1863,7 +1839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1878,7 +1854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71:C72"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1882,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45398</v>
+        <v>45405</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2084,13 +2060,13 @@
       <c r="AE6" s="28"/>
     </row>
     <row r="7" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="30"/>
@@ -2127,13 +2103,13 @@
       <c r="AE7" s="33"/>
     </row>
     <row r="8" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="30"/>
@@ -2168,13 +2144,13 @@
       <c r="AE8" s="33"/>
     </row>
     <row r="9" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="30"/>
@@ -2209,13 +2185,13 @@
       <c r="AE9" s="33"/>
     </row>
     <row r="10" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="30"/>
@@ -2250,13 +2226,13 @@
       <c r="AE10" s="33"/>
     </row>
     <row r="11" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="30"/>
@@ -2291,13 +2267,13 @@
       <c r="AE11" s="33"/>
     </row>
     <row r="12" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="30"/>
@@ -2332,13 +2308,13 @@
       <c r="AE12" s="33"/>
     </row>
     <row r="13" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="30"/>
@@ -2410,13 +2386,13 @@
       <c r="AE14" s="36"/>
     </row>
     <row r="15" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="30"/>
@@ -2451,13 +2427,13 @@
       <c r="AE15" s="33"/>
     </row>
     <row r="16" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="30"/>
@@ -2529,13 +2505,13 @@
       <c r="AE17" s="36"/>
     </row>
     <row r="18" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="30"/>
@@ -2570,13 +2546,13 @@
       <c r="AE18" s="33"/>
     </row>
     <row r="19" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="30"/>
@@ -2650,13 +2626,13 @@
       <c r="AE20" s="36"/>
     </row>
     <row r="21" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="30"/>
@@ -2728,13 +2704,13 @@
       <c r="AE22" s="36"/>
     </row>
     <row r="23" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="30"/>
@@ -2808,13 +2784,13 @@
       <c r="AE24" s="36"/>
     </row>
     <row r="25" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="62" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="30"/>
@@ -2853,13 +2829,13 @@
       <c r="AE25" s="33"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="30"/>
@@ -2894,13 +2870,13 @@
       <c r="AE26" s="33"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="30"/>
@@ -2935,13 +2911,13 @@
       <c r="AE27" s="33"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="30"/>
@@ -3013,13 +2989,13 @@
       <c r="AE29" s="36"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="30"/>
@@ -3056,13 +3032,13 @@
       <c r="AE30" s="33"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="30"/>
@@ -3097,13 +3073,13 @@
       <c r="AE31" s="33"/>
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="30"/>
@@ -3175,13 +3151,13 @@
       <c r="AE33" s="36"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -3321,13 +3297,13 @@
       <c r="AE37" s="28"/>
     </row>
     <row r="38" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30"/>
@@ -3364,13 +3340,13 @@
       <c r="AE38" s="33"/>
     </row>
     <row r="39" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="30"/>
@@ -3405,13 +3381,13 @@
       <c r="AE39" s="33"/>
     </row>
     <row r="40" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="30"/>
@@ -3446,13 +3422,13 @@
       <c r="AE40" s="33"/>
     </row>
     <row r="41" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="30"/>
@@ -3487,13 +3463,13 @@
       <c r="AE41" s="33"/>
     </row>
     <row r="42" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="30"/>
@@ -3528,13 +3504,13 @@
       <c r="AE42" s="33"/>
     </row>
     <row r="43" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
+      <c r="A43" s="65">
         <v>40910</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="30"/>
@@ -3569,13 +3545,13 @@
       <c r="AE43" s="33"/>
     </row>
     <row r="44" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="30"/>
@@ -3647,13 +3623,13 @@
       <c r="AE45" s="36"/>
     </row>
     <row r="46" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="30"/>
@@ -3688,13 +3664,13 @@
       <c r="AE46" s="33"/>
     </row>
     <row r="47" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="30"/>
@@ -3766,13 +3742,13 @@
       <c r="AE48" s="36"/>
     </row>
     <row r="49" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="30"/>
@@ -3807,13 +3783,13 @@
       <c r="AE49" s="33"/>
     </row>
     <row r="50" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="30"/>
@@ -3887,13 +3863,13 @@
       <c r="AE51" s="36"/>
     </row>
     <row r="52" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="30"/>
@@ -3965,13 +3941,13 @@
       <c r="AE53" s="36"/>
     </row>
     <row r="54" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="30"/>
@@ -4045,13 +4021,13 @@
       <c r="AE55" s="36"/>
     </row>
     <row r="56" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="62" t="s">
         <v>243</v>
       </c>
       <c r="D56" s="30"/>
@@ -4090,13 +4066,13 @@
       <c r="AE56" s="33"/>
     </row>
     <row r="57" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D57" s="30"/>
@@ -4131,13 +4107,13 @@
       <c r="AE57" s="33"/>
     </row>
     <row r="58" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="30"/>
@@ -4172,13 +4148,13 @@
       <c r="AE58" s="33"/>
     </row>
     <row r="59" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="30"/>
@@ -4250,13 +4226,13 @@
       <c r="AE60" s="36"/>
     </row>
     <row r="61" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="30"/>
@@ -4293,13 +4269,13 @@
       <c r="AE61" s="33"/>
     </row>
     <row r="62" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="30"/>
@@ -4334,13 +4310,13 @@
       <c r="AE62" s="33"/>
     </row>
     <row r="63" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="30"/>
@@ -4412,13 +4388,13 @@
       <c r="AE64" s="36"/>
     </row>
     <row r="65" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="30"/>
@@ -4560,13 +4536,13 @@
       <c r="AE68" s="28"/>
     </row>
     <row r="69" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="30"/>
@@ -4603,13 +4579,13 @@
       <c r="AE69" s="33"/>
     </row>
     <row r="70" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="30"/>
@@ -4644,13 +4620,13 @@
       <c r="AE70" s="33"/>
     </row>
     <row r="71" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D71" s="30"/>
@@ -4720,13 +4696,13 @@
       <c r="AE72" s="36"/>
     </row>
     <row r="73" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="62" t="s">
         <v>244</v>
       </c>
       <c r="D73" s="30"/>
@@ -4765,13 +4741,13 @@
       <c r="AE73" s="33"/>
     </row>
     <row r="74" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="30"/>
@@ -4806,13 +4782,13 @@
       <c r="AE74" s="33"/>
     </row>
     <row r="75" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="30"/>
@@ -4884,13 +4860,13 @@
       <c r="AE76" s="36"/>
     </row>
     <row r="77" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="30"/>
@@ -4927,13 +4903,13 @@
       <c r="AE77" s="33"/>
     </row>
     <row r="78" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D78" s="30"/>
@@ -4968,13 +4944,13 @@
       <c r="AE78" s="33"/>
     </row>
     <row r="79" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="30"/>
@@ -5046,13 +5022,13 @@
       <c r="AE80" s="36"/>
     </row>
     <row r="81" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="30"/>
@@ -5126,13 +5102,13 @@
       <c r="AE82" s="36"/>
     </row>
     <row r="83" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="70" t="s">
+      <c r="A83" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="30"/>
@@ -5204,13 +5180,13 @@
       <c r="AE84" s="36"/>
     </row>
     <row r="85" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="30"/>
@@ -5245,13 +5221,13 @@
       <c r="AE85" s="33"/>
     </row>
     <row r="86" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="70" t="s">
+      <c r="A86" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D86" s="30"/>
@@ -5323,13 +5299,13 @@
       <c r="AE87" s="36"/>
     </row>
     <row r="88" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="62" t="s">
         <v>245</v>
       </c>
       <c r="D88" s="30"/>
@@ -5366,13 +5342,13 @@
       <c r="AE88" s="33"/>
     </row>
     <row r="89" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="62" t="s">
         <v>245</v>
       </c>
       <c r="D89" s="30"/>
@@ -5409,13 +5385,13 @@
       <c r="AE89" s="33"/>
     </row>
     <row r="90" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="70" t="s">
+      <c r="A90" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="30"/>
@@ -5489,13 +5465,13 @@
       <c r="AE91" s="36"/>
     </row>
     <row r="92" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="30"/>
@@ -5567,13 +5543,13 @@
       <c r="AE93" s="36"/>
     </row>
     <row r="94" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D94" s="30"/>
@@ -5608,9 +5584,9 @@
       <c r="AE94" s="33"/>
     </row>
     <row r="95" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="75"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="57"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="47"/>
       <c r="E95" s="48"/>
       <c r="F95" s="48"/>
@@ -5715,13 +5691,13 @@
       <c r="AE97" s="28"/>
     </row>
     <row r="98" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="B98" s="78" t="s">
+      <c r="B98" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="62" t="s">
         <v>185</v>
       </c>
       <c r="D98" s="30"/>
@@ -5793,13 +5769,13 @@
       <c r="AE99" s="36"/>
     </row>
     <row r="100" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77" t="s">
+      <c r="A100" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="B100" s="78" t="s">
+      <c r="B100" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="62" t="s">
         <v>185</v>
       </c>
       <c r="D100" s="30"/>
@@ -5836,13 +5812,13 @@
       <c r="AE100" s="33"/>
     </row>
     <row r="101" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77" t="s">
+      <c r="A101" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="B101" s="78" t="s">
+      <c r="B101" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="62" t="s">
         <v>185</v>
       </c>
       <c r="D101" s="30"/>
@@ -5918,13 +5894,13 @@
       <c r="AE102" s="36"/>
     </row>
     <row r="103" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="77" t="s">
+      <c r="A103" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="78" t="s">
+      <c r="B103" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C103" s="29"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="30"/>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
@@ -5992,13 +5968,13 @@
       <c r="AE104" s="36"/>
     </row>
     <row r="105" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="77" t="s">
+      <c r="A105" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="62" t="s">
         <v>247</v>
       </c>
       <c r="D105" s="30"/>
@@ -6039,13 +6015,13 @@
       <c r="AE105" s="33"/>
     </row>
     <row r="106" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="B106" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="73" t="s">
         <v>202</v>
       </c>
       <c r="D106" s="30"/>
@@ -6119,13 +6095,13 @@
       <c r="AE107" s="36"/>
     </row>
     <row r="108" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B108" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="62" t="s">
         <v>199</v>
       </c>
       <c r="D108" s="30"/>
@@ -6164,13 +6140,13 @@
       <c r="AE108" s="33"/>
     </row>
     <row r="109" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="62" t="s">
         <v>199</v>
       </c>
       <c r="D109" s="30"/>
@@ -6242,13 +6218,13 @@
       <c r="AE110" s="36"/>
     </row>
     <row r="111" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="77" t="s">
+      <c r="A111" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="62" t="s">
         <v>199</v>
       </c>
       <c r="D111" s="30"/>
@@ -6289,13 +6265,13 @@
       <c r="AE111" s="33"/>
     </row>
     <row r="112" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="77" t="s">
+      <c r="A112" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="B112" s="78" t="s">
+      <c r="B112" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D112" s="30"/>
@@ -6371,13 +6347,13 @@
       <c r="AE113" s="36"/>
     </row>
     <row r="114" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="78" t="s">
+      <c r="B114" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="62" t="s">
         <v>199</v>
       </c>
       <c r="D114" s="30"/>
@@ -6418,13 +6394,13 @@
       <c r="AE114" s="33"/>
     </row>
     <row r="115" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="77" t="s">
+      <c r="A115" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="B115" s="78" t="s">
+      <c r="B115" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D115" s="30"/>
@@ -6500,13 +6476,13 @@
       <c r="AE116" s="36"/>
     </row>
     <row r="117" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="78" t="s">
+      <c r="B117" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="62" t="s">
         <v>224</v>
       </c>
       <c r="D117" s="30"/>
@@ -6541,13 +6517,13 @@
       <c r="AE117" s="33"/>
     </row>
     <row r="118" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="77" t="s">
+      <c r="A118" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="78" t="s">
+      <c r="B118" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="62" t="s">
         <v>224</v>
       </c>
       <c r="D118" s="30"/>
@@ -6619,13 +6595,13 @@
       <c r="AE119" s="36"/>
     </row>
     <row r="120" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="77" t="s">
+      <c r="A120" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="78" t="s">
+      <c r="B120" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D120" s="30"/>
@@ -6660,9 +6636,9 @@
       <c r="AE120" s="33"/>
     </row>
     <row r="121" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="79"/>
-      <c r="B121" s="80"/>
-      <c r="C121" s="46"/>
+      <c r="A121" s="74"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="76"/>
       <c r="D121" s="47"/>
       <c r="E121" s="48"/>
       <c r="F121" s="48"/>
@@ -6767,13 +6743,13 @@
       <c r="AE123" s="28"/>
     </row>
     <row r="124" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="81" t="s">
+      <c r="A124" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="82" t="s">
+      <c r="B124" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D124" s="30"/>
@@ -6808,13 +6784,13 @@
       <c r="AE124" s="33"/>
     </row>
     <row r="125" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="81" t="s">
+      <c r="A125" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="B125" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D125" s="30"/>
@@ -6851,13 +6827,13 @@
       <c r="AE125" s="33"/>
     </row>
     <row r="126" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="81" t="s">
+      <c r="A126" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="B126" s="82" t="s">
+      <c r="B126" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D126" s="30"/>
@@ -6929,13 +6905,13 @@
       <c r="AE127" s="36"/>
     </row>
     <row r="128" spans="1:31" s="43" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B128" s="82" t="s">
+      <c r="B128" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="62" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="30"/>
@@ -6970,9 +6946,9 @@
       <c r="AE128" s="33"/>
     </row>
     <row r="129" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="59"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="61"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="47"/>
       <c r="E129" s="48"/>
       <c r="F129" s="48"/>
@@ -7003,6 +6979,7 @@
       <c r="AE129" s="49"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:AE129" xr:uid="{A0CC62FA-9D44-40C0-9D35-5B3E749541C5}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
